--- a/individual_results/avey/411.xlsx
+++ b/individual_results/avey/411.xlsx
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="Q2" t="n">
         <v>0.1666666666666667</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q3" t="n">
         <v>0.5</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0.6666666666666666</v>
@@ -723,10 +723,10 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="Q4" t="n">
         <v>0.25</v>
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.363636363636364</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0.8333333333333334</v>
@@ -778,10 +778,10 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="Q5" t="n">
         <v>0.3571428571428572</v>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9344133571786</v>
+        <v>0.7967075809905066</v>
       </c>
       <c r="C6" t="n">
         <v>0.9639404333166532</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4491768952476267</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2563190756191194</v>
+        <v>0.1377057761880933</v>
       </c>
       <c r="Q6" t="n">
         <v>0.17376534287144</v>
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -1180,10 +1180,10 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
         <v>3</v>
